--- a/config/itech-aurum/forms/contact/nurse-create.xlsx
+++ b/config/itech-aurum/forms/contact/nurse-create.xlsx
@@ -1,14 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\medic\ssh-git\config-itech\config-itech-78\itech-aurum\forms\contact\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2666EBC9-002F-4513-857F-91FB8F61A819}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="survey" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="choices" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="settings" sheetId="3" r:id="rId6"/>
+    <sheet name="survey" sheetId="1" r:id="rId1"/>
+    <sheet name="choices" sheetId="2" r:id="rId2"/>
+    <sheet name="settings" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataSignature="AMtx7mghZOLEVTQWibJJbwWF7AYjj3iyOw=="/>
@@ -18,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="69">
   <si>
     <t>type</t>
   </si>
@@ -80,9 +89,6 @@
     <t>Person Type</t>
   </si>
   <si>
-    <t>mandatory</t>
-  </si>
-  <si>
     <t>person</t>
   </si>
   <si>
@@ -219,48 +225,57 @@
   </si>
   <si>
     <t>data</t>
+  </si>
+  <si>
+    <t>role</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>Nurse</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7">
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Cambria"/>
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Proxima Nova"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
@@ -270,7 +285,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -280,7 +295,13 @@
     </fill>
   </fills>
   <borders count="2">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FFD0CECE"/>
@@ -294,68 +315,48 @@
       <bottom style="thin">
         <color rgb="FFD0CECE"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf quotePrefix="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -545,35 +546,35 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:X984"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="28.11"/>
-    <col customWidth="1" min="2" max="2" width="18.44"/>
-    <col customWidth="1" min="3" max="3" width="57.0"/>
-    <col customWidth="1" min="4" max="4" width="11.33"/>
-    <col customWidth="1" min="5" max="5" width="11.78"/>
-    <col customWidth="1" min="6" max="8" width="13.44"/>
-    <col customWidth="1" min="9" max="9" width="36.11"/>
-    <col customWidth="1" min="10" max="10" width="59.0"/>
-    <col customWidth="1" min="11" max="16" width="13.44"/>
-    <col customWidth="1" min="17" max="24" width="10.0"/>
+    <col min="1" max="1" width="28.125" customWidth="1"/>
+    <col min="2" max="2" width="18.5" customWidth="1"/>
+    <col min="3" max="3" width="57" customWidth="1"/>
+    <col min="4" max="4" width="11.375" customWidth="1"/>
+    <col min="5" max="5" width="11.75" customWidth="1"/>
+    <col min="6" max="8" width="13.5" customWidth="1"/>
+    <col min="9" max="9" width="36.125" customWidth="1"/>
+    <col min="10" max="10" width="59" customWidth="1"/>
+    <col min="11" max="16" width="13.5" customWidth="1"/>
+    <col min="17" max="24" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.75" customHeight="1">
+    <row r="1" spans="1:24" ht="12.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -621,14 +622,16 @@
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
     </row>
-    <row r="2" ht="12.75" customHeight="1">
+    <row r="2" spans="1:24" ht="12.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
         <v>13</v>
@@ -653,7 +656,7 @@
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
     </row>
-    <row r="3" ht="12.75" customHeight="1">
+    <row r="3" spans="1:24" ht="12.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -689,7 +692,7 @@
       <c r="W3" s="1"/>
       <c r="X3" s="1"/>
     </row>
-    <row r="4" ht="12.75" customHeight="1">
+    <row r="4" spans="1:24" ht="12.75" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -704,11 +707,9 @@
         <v>17</v>
       </c>
       <c r="F4" s="1"/>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="1"/>
+      <c r="H4" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -727,68 +728,64 @@
       <c r="W4" s="1"/>
       <c r="X4" s="1"/>
     </row>
-    <row r="5" ht="12.75" customHeight="1">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:24" s="11" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="4"/>
+    </row>
+    <row r="6" spans="1:24" ht="12.75" customHeight="1">
+      <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1" t="s">
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
-      <c r="V5" s="1"/>
-      <c r="W5" s="1"/>
-      <c r="X5" s="1"/>
-    </row>
-    <row r="6" ht="12.75" customHeight="1">
-      <c r="A6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="4" t="b">
-        <v>1</v>
-      </c>
+      <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
@@ -803,20 +800,30 @@
       <c r="W6" s="1"/>
       <c r="X6" s="1"/>
     </row>
-    <row r="7" ht="12.75" customHeight="1">
-      <c r="A7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
+    <row r="7" spans="1:24" ht="12.75" customHeight="1">
+      <c r="A7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+      <c r="E7" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+      <c r="H7" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
+      <c r="K7" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
@@ -831,10 +838,37 @@
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
     </row>
-    <row r="8" ht="15.75" customHeight="1"/>
-    <row r="14" ht="12.75" customHeight="1"/>
-    <row r="15" ht="12.75" customHeight="1"/>
-    <row r="16" ht="12.75" customHeight="1"/>
+    <row r="8" spans="1:24" ht="12.75" customHeight="1">
+      <c r="A8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+    </row>
+    <row r="9" spans="1:24" ht="15.75" customHeight="1"/>
+    <row r="15" spans="1:24" ht="12.75" customHeight="1"/>
+    <row r="16" spans="1:24" ht="12.75" customHeight="1"/>
     <row r="17" ht="12.75" customHeight="1"/>
     <row r="18" ht="12.75" customHeight="1"/>
     <row r="19" ht="12.75" customHeight="1"/>
@@ -1027,7 +1061,7 @@
     <row r="206" ht="12.75" customHeight="1"/>
     <row r="207" ht="12.75" customHeight="1"/>
     <row r="208" ht="12.75" customHeight="1"/>
-    <row r="209" ht="15.75" customHeight="1"/>
+    <row r="209" ht="12.75" customHeight="1"/>
     <row r="210" ht="15.75" customHeight="1"/>
     <row r="211" ht="15.75" customHeight="1"/>
     <row r="212" ht="15.75" customHeight="1"/>
@@ -1802,37 +1836,34 @@
     <row r="981" ht="15.75" customHeight="1"/>
     <row r="982" ht="15.75" customHeight="1"/>
     <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.984027777777778" footer="0.0" header="0.0" left="0.747916666666667" right="0.747916666666667" top="0.984027777777778"/>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C988"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="19.67"/>
-    <col customWidth="1" min="2" max="2" width="13.44"/>
-    <col customWidth="1" min="3" max="3" width="22.67"/>
-    <col customWidth="1" min="4" max="6" width="13.44"/>
-    <col customWidth="1" min="7" max="26" width="8.56"/>
+    <col min="1" max="1" width="19.625" customWidth="1"/>
+    <col min="2" max="2" width="13.5" customWidth="1"/>
+    <col min="3" max="3" width="22.625" customWidth="1"/>
+    <col min="4" max="6" width="13.5" customWidth="1"/>
+    <col min="7" max="26" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" ht="15.75">
       <c r="A1" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>1</v>
@@ -1841,141 +1872,141 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3" ht="15.75">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3" ht="15.75">
       <c r="A3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="C3" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="5" t="s">
+    </row>
+    <row r="4" spans="1:3" ht="15.75">
+      <c r="A4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>33</v>
       </c>
+      <c r="C4" s="5" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="4">
-      <c r="A4" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="5" t="s">
+    <row r="7" spans="1:3" ht="15.75">
+      <c r="A7" s="5" t="s">
         <v>35</v>
       </c>
+      <c r="B7" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="7">
-      <c r="A7" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="6" t="s">
+    <row r="8" spans="1:3" ht="15.75">
+      <c r="A8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>38</v>
       </c>
+      <c r="C8" s="6" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="8">
-      <c r="A8" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="6" t="s">
+    <row r="9" spans="1:3" ht="15.75">
+      <c r="A9" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>40</v>
       </c>
+      <c r="C9" s="6" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="9">
-      <c r="A9" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="6" t="s">
+    <row r="10" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A10" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>42</v>
       </c>
+      <c r="C10" s="6" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" s="6" t="s">
+    <row r="11" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A11" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>44</v>
       </c>
+      <c r="C11" s="6" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" s="6" t="s">
+    <row r="12" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A12" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>46</v>
       </c>
+      <c r="C12" s="6" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="6" t="s">
+    <row r="13" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>48</v>
       </c>
+      <c r="C13" s="6" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" s="6" t="s">
+    <row r="14" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A14" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>50</v>
       </c>
+      <c r="C14" s="6" t="s">
+        <v>51</v>
+      </c>
     </row>
-    <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C14" s="6" t="s">
+    <row r="15" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A15" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>52</v>
       </c>
+      <c r="C15" s="6" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="6" t="s">
+    <row r="16" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A16" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" s="6" t="s">
+      <c r="C16" s="6" t="s">
         <v>55</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1"/>
@@ -2951,46 +2982,42 @@
     <row r="987" ht="15.75" customHeight="1"/>
     <row r="988" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.984027777777778" footer="0.0" header="0.0" left="0.747916666666667" right="0.747916666666667" top="0.984027777777778"/>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:O1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="38.67"/>
-    <col customWidth="1" min="2" max="2" width="53.33"/>
-    <col customWidth="1" min="3" max="3" width="40.0"/>
-    <col customWidth="1" min="4" max="4" width="25.0"/>
-    <col customWidth="1" min="5" max="15" width="13.44"/>
-    <col customWidth="1" min="16" max="26" width="8.56"/>
+    <col min="1" max="1" width="38.625" customWidth="1"/>
+    <col min="2" max="2" width="53.375" customWidth="1"/>
+    <col min="3" max="3" width="40" customWidth="1"/>
+    <col min="4" max="4" width="25" customWidth="1"/>
+    <col min="5" max="15" width="13.5" customWidth="1"/>
+    <col min="16" max="26" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.0" customHeight="1">
+    <row r="1" spans="1:15" ht="18" customHeight="1">
       <c r="A1" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="C1" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
@@ -3003,21 +3030,21 @@
       <c r="N1" s="7"/>
       <c r="O1" s="7"/>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1">
       <c r="A2" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="C2" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="D2" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="E2" s="11" t="s">
         <v>65</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>66</v>
       </c>
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
@@ -4011,9 +4038,7 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.984027777777778" footer="0.0" header="0.0" left="0.747916666666667" right="0.747916666666667" top="0.984027777777778"/>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/config/itech-aurum/forms/contact/nurse-create.xlsx
+++ b/config/itech-aurum/forms/contact/nurse-create.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\medic\ssh-git\config-itech\config-itech-78\itech-aurum\forms\contact\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\medic\ssh-git\config-itech\config-itech-108\itech-aurum\forms\contact\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2666EBC9-002F-4513-857F-91FB8F61A819}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6F91DA9-4D56-4B97-94FD-9F74D84170E0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="67">
   <si>
     <t>type</t>
   </si>
@@ -96,12 +96,6 @@
   </si>
   <si>
     <t>yes</t>
-  </si>
-  <si>
-    <t>regex(., "^[a-zA-Z\'\s]+$")</t>
-  </si>
-  <si>
-    <t>Please type in name characters e.g letters and space.</t>
   </si>
   <si>
     <t>calculate</t>
@@ -557,7 +551,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1"/>
@@ -630,7 +624,7 @@
         <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
@@ -733,10 +727,10 @@
         <v>17</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -779,12 +773,8 @@
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
-      <c r="I6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
@@ -802,13 +792,13 @@
     </row>
     <row r="7" spans="1:24" ht="12.75" customHeight="1">
       <c r="A7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>27</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="3" t="s">
@@ -840,7 +830,7 @@
     </row>
     <row r="8" spans="1:24" ht="12.75" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -1863,7 +1853,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.75">
       <c r="A1" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>1</v>
@@ -1879,134 +1869,134 @@
     </row>
     <row r="3" spans="1:3" ht="15.75">
       <c r="A3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75">
       <c r="A4" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75">
       <c r="A7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>35</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75">
       <c r="A8" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75">
       <c r="A9" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.75" customHeight="1">
       <c r="A10" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.75" customHeight="1">
       <c r="A11" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" customHeight="1">
       <c r="A12" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.75" customHeight="1">
       <c r="A13" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" customHeight="1">
       <c r="A14" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.75" customHeight="1">
       <c r="A15" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.75" customHeight="1">
       <c r="A16" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1"/>
@@ -3005,19 +2995,19 @@
   <sheetData>
     <row r="1" spans="1:15" ht="18" customHeight="1">
       <c r="A1" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
@@ -3032,19 +3022,19 @@
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1">
       <c r="A2" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="D2" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="E2" s="11" t="s">
         <v>63</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>65</v>
       </c>
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>

--- a/config/itech-aurum/forms/contact/nurse-create.xlsx
+++ b/config/itech-aurum/forms/contact/nurse-create.xlsx
@@ -1,23 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\medic\ssh-git\config-itech\config-itech-108\itech-aurum\forms\contact\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6F91DA9-4D56-4B97-94FD-9F74D84170E0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
   <sheets>
-    <sheet name="survey" sheetId="1" r:id="rId1"/>
-    <sheet name="choices" sheetId="2" r:id="rId2"/>
-    <sheet name="settings" sheetId="3" r:id="rId3"/>
+    <sheet state="visible" name="survey" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="choices" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="settings" sheetId="3" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataSignature="AMtx7mghZOLEVTQWibJJbwWF7AYjj3iyOw=="/>
@@ -27,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="67">
   <si>
     <t>type</t>
   </si>
@@ -89,6 +80,9 @@
     <t>Person Type</t>
   </si>
   <si>
+    <t>mandatory</t>
+  </si>
+  <si>
     <t>person</t>
   </si>
   <si>
@@ -98,6 +92,12 @@
     <t>yes</t>
   </si>
   <si>
+    <t>regex(., "^[a-zA-Z\'\s]+$")</t>
+  </si>
+  <si>
+    <t>Please type in name characters e.g letters and space.</t>
+  </si>
+  <si>
     <t>calculate</t>
   </si>
   <si>
@@ -219,57 +219,48 @@
   </si>
   <si>
     <t>data</t>
-  </si>
-  <si>
-    <t>role</t>
-  </si>
-  <si>
-    <t>Role</t>
-  </si>
-  <si>
-    <t>Nurse</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <fonts count="7">
     <font>
-      <sz val="12"/>
+      <sz val="12.0"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color theme="1"/>
       <name val="Cambria"/>
     </font>
     <font>
       <b/>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color rgb="FFFFFFFF"/>
       <name val="Proxima Nova"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
@@ -279,7 +270,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="lightGray"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -289,13 +280,7 @@
     </fill>
   </fills>
   <borders count="2">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
     <border>
       <left style="thin">
         <color rgb="FFD0CECE"/>
@@ -309,48 +294,68 @@
       <bottom style="thin">
         <color rgb="FFD0CECE"/>
       </bottom>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
   <cellXfs count="12">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="1" fillId="2" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf quotePrefix="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -540,35 +545,35 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X984"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <pageSetUpPr/>
+  </sheetPr>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="28.125" customWidth="1"/>
-    <col min="2" max="2" width="18.5" customWidth="1"/>
-    <col min="3" max="3" width="57" customWidth="1"/>
-    <col min="4" max="4" width="11.375" customWidth="1"/>
-    <col min="5" max="5" width="11.75" customWidth="1"/>
-    <col min="6" max="8" width="13.5" customWidth="1"/>
-    <col min="9" max="9" width="36.125" customWidth="1"/>
-    <col min="10" max="10" width="59" customWidth="1"/>
-    <col min="11" max="16" width="13.5" customWidth="1"/>
-    <col min="17" max="24" width="10" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="28.11"/>
+    <col customWidth="1" min="2" max="2" width="18.44"/>
+    <col customWidth="1" min="3" max="3" width="57.0"/>
+    <col customWidth="1" min="4" max="4" width="11.33"/>
+    <col customWidth="1" min="5" max="5" width="11.78"/>
+    <col customWidth="1" min="6" max="8" width="13.44"/>
+    <col customWidth="1" min="9" max="9" width="36.11"/>
+    <col customWidth="1" min="10" max="10" width="59.0"/>
+    <col customWidth="1" min="11" max="16" width="13.44"/>
+    <col customWidth="1" min="17" max="24" width="10.0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="12.75" customHeight="1">
+    <row r="1" ht="12.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -616,16 +621,14 @@
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
     </row>
-    <row r="2" spans="1:24" ht="12.75" customHeight="1">
+    <row r="2" ht="12.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>66</v>
-      </c>
+      <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
         <v>13</v>
@@ -650,7 +653,7 @@
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
     </row>
-    <row r="3" spans="1:24" ht="12.75" customHeight="1">
+    <row r="3" ht="12.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -686,7 +689,7 @@
       <c r="W3" s="1"/>
       <c r="X3" s="1"/>
     </row>
-    <row r="4" spans="1:24" ht="12.75" customHeight="1">
+    <row r="4" ht="12.75" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -701,9 +704,11 @@
         <v>17</v>
       </c>
       <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="H4" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -722,60 +727,68 @@
       <c r="W4" s="1"/>
       <c r="X4" s="1"/>
     </row>
-    <row r="5" spans="1:24" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A5" s="4" t="s">
+    <row r="5" ht="12.75" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+    </row>
+    <row r="6" ht="12.75" customHeight="1">
+      <c r="A6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
-      <c r="U5" s="4"/>
-      <c r="V5" s="4"/>
-      <c r="W5" s="4"/>
-      <c r="X5" s="4"/>
-    </row>
-    <row r="6" spans="1:24" ht="12.75" customHeight="1">
-      <c r="A6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="1" t="s">
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
+      <c r="K6" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
@@ -790,30 +803,20 @@
       <c r="W6" s="1"/>
       <c r="X6" s="1"/>
     </row>
-    <row r="7" spans="1:24" ht="12.75" customHeight="1">
-      <c r="A7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>25</v>
-      </c>
+    <row r="7" ht="12.75" customHeight="1">
+      <c r="A7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-      <c r="H7" s="4" t="b">
-        <v>1</v>
-      </c>
+      <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
-      <c r="K7" s="4" t="b">
-        <v>1</v>
-      </c>
+      <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
@@ -828,37 +831,10 @@
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
     </row>
-    <row r="8" spans="1:24" ht="12.75" customHeight="1">
-      <c r="A8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
-      <c r="U8" s="1"/>
-      <c r="V8" s="1"/>
-      <c r="W8" s="1"/>
-      <c r="X8" s="1"/>
-    </row>
-    <row r="9" spans="1:24" ht="15.75" customHeight="1"/>
-    <row r="15" spans="1:24" ht="12.75" customHeight="1"/>
-    <row r="16" spans="1:24" ht="12.75" customHeight="1"/>
+    <row r="8" ht="15.75" customHeight="1"/>
+    <row r="14" ht="12.75" customHeight="1"/>
+    <row r="15" ht="12.75" customHeight="1"/>
+    <row r="16" ht="12.75" customHeight="1"/>
     <row r="17" ht="12.75" customHeight="1"/>
     <row r="18" ht="12.75" customHeight="1"/>
     <row r="19" ht="12.75" customHeight="1"/>
@@ -1051,7 +1027,7 @@
     <row r="206" ht="12.75" customHeight="1"/>
     <row r="207" ht="12.75" customHeight="1"/>
     <row r="208" ht="12.75" customHeight="1"/>
-    <row r="209" ht="12.75" customHeight="1"/>
+    <row r="209" ht="15.75" customHeight="1"/>
     <row r="210" ht="15.75" customHeight="1"/>
     <row r="211" ht="15.75" customHeight="1"/>
     <row r="212" ht="15.75" customHeight="1"/>
@@ -1826,34 +1802,37 @@
     <row r="981" ht="15.75" customHeight="1"/>
     <row r="982" ht="15.75" customHeight="1"/>
     <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
   </sheetData>
-  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0" footer="0"/>
+  <printOptions/>
+  <pageMargins bottom="0.984027777777778" footer="0.0" header="0.0" left="0.747916666666667" right="0.747916666666667" top="0.984027777777778"/>
   <pageSetup orientation="portrait"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C988"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <pageSetUpPr/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="19.625" customWidth="1"/>
-    <col min="2" max="2" width="13.5" customWidth="1"/>
-    <col min="3" max="3" width="22.625" customWidth="1"/>
-    <col min="4" max="6" width="13.5" customWidth="1"/>
-    <col min="7" max="26" width="8.5" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="19.67"/>
+    <col customWidth="1" min="2" max="2" width="13.44"/>
+    <col customWidth="1" min="3" max="3" width="22.67"/>
+    <col customWidth="1" min="4" max="6" width="13.44"/>
+    <col customWidth="1" min="7" max="26" width="8.56"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75">
+    <row r="1">
       <c r="A1" s="5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>1</v>
@@ -1862,141 +1841,141 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75">
+    <row r="2">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
     </row>
-    <row r="3" spans="1:3" ht="15.75">
+    <row r="3">
       <c r="A3" s="5" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75">
+    <row r="4">
       <c r="A4" s="5" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.75">
+    <row r="7">
       <c r="A7" s="5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.75">
+    <row r="8">
       <c r="A8" s="5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B8" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>37</v>
+      <c r="B9" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.75">
-      <c r="A9" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>39</v>
+    <row r="10" ht="15.75" customHeight="1">
+      <c r="A10" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A10" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>41</v>
+    <row r="11" ht="15.75" customHeight="1">
+      <c r="A11" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A11" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>43</v>
+    <row r="12" ht="15.75" customHeight="1">
+      <c r="A12" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A12" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>45</v>
+    <row r="13" ht="15.75" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A13" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>47</v>
+    <row r="14" ht="15.75" customHeight="1">
+      <c r="A14" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A14" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>49</v>
+    <row r="15" ht="15.75" customHeight="1">
+      <c r="A15" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A15" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="15.75" customHeight="1">
+    <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1"/>
@@ -2972,42 +2951,46 @@
     <row r="987" ht="15.75" customHeight="1"/>
     <row r="988" ht="15.75" customHeight="1"/>
   </sheetData>
-  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0" footer="0"/>
+  <printOptions/>
+  <pageMargins bottom="0.984027777777778" footer="0.0" header="0.0" left="0.747916666666667" right="0.747916666666667" top="0.984027777777778"/>
   <pageSetup orientation="portrait"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:O1000"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <pageSetUpPr/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="38.625" customWidth="1"/>
-    <col min="2" max="2" width="53.375" customWidth="1"/>
-    <col min="3" max="3" width="40" customWidth="1"/>
-    <col min="4" max="4" width="25" customWidth="1"/>
-    <col min="5" max="15" width="13.5" customWidth="1"/>
-    <col min="16" max="26" width="8.5" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="38.67"/>
+    <col customWidth="1" min="2" max="2" width="53.33"/>
+    <col customWidth="1" min="3" max="3" width="40.0"/>
+    <col customWidth="1" min="4" max="4" width="25.0"/>
+    <col customWidth="1" min="5" max="15" width="13.44"/>
+    <col customWidth="1" min="16" max="26" width="8.56"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="18" customHeight="1">
+    <row r="1" ht="18.0" customHeight="1">
       <c r="A1" s="7" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
@@ -3020,21 +3003,21 @@
       <c r="N1" s="7"/>
       <c r="O1" s="7"/>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1">
+    <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="8" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
@@ -4028,7 +4011,9 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0" footer="0"/>
+  <printOptions/>
+  <pageMargins bottom="0.984027777777778" footer="0.0" header="0.0" left="0.747916666666667" right="0.747916666666667" top="0.984027777777778"/>
   <pageSetup orientation="portrait"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>